--- a/data/NewlyCreatedData/All_dispersal_events_lastobs.xlsx
+++ b/data/NewlyCreatedData/All_dispersal_events_lastobs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3735" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3799" uniqueCount="606">
   <si>
     <t>Year</t>
   </si>
@@ -3013,8 +3013,8 @@
       <c r="D22" t="s">
         <v>124</v>
       </c>
-      <c r="E22" t="e">
-        <v>#N/A</v>
+      <c r="E22" t="s">
+        <v>122</v>
       </c>
       <c r="F22" t="s">
         <v>176</v>
@@ -3066,8 +3066,8 @@
       <c r="D23" t="s">
         <v>124</v>
       </c>
-      <c r="E23" t="e">
-        <v>#N/A</v>
+      <c r="E23" t="s">
+        <v>122</v>
       </c>
       <c r="F23" t="s">
         <v>176</v>
@@ -3596,8 +3596,8 @@
       <c r="D33" t="s">
         <v>127</v>
       </c>
-      <c r="E33" t="e">
-        <v>#N/A</v>
+      <c r="E33" t="s">
+        <v>122</v>
       </c>
       <c r="F33" t="s">
         <v>182</v>
@@ -3649,8 +3649,8 @@
       <c r="D34" t="s">
         <v>124</v>
       </c>
-      <c r="E34" t="e">
-        <v>#N/A</v>
+      <c r="E34" t="s">
+        <v>122</v>
       </c>
       <c r="F34" t="s">
         <v>176</v>
@@ -3702,8 +3702,8 @@
       <c r="D35" t="s">
         <v>127</v>
       </c>
-      <c r="E35" t="e">
-        <v>#N/A</v>
+      <c r="E35" t="s">
+        <v>122</v>
       </c>
       <c r="F35" t="s">
         <v>182</v>
@@ -3755,8 +3755,8 @@
       <c r="D36" t="s">
         <v>124</v>
       </c>
-      <c r="E36" t="e">
-        <v>#N/A</v>
+      <c r="E36" t="s">
+        <v>122</v>
       </c>
       <c r="F36" t="s">
         <v>176</v>
@@ -3808,8 +3808,8 @@
       <c r="D37" t="s">
         <v>124</v>
       </c>
-      <c r="E37" t="e">
-        <v>#N/A</v>
+      <c r="E37" t="s">
+        <v>122</v>
       </c>
       <c r="F37" t="s">
         <v>183</v>
@@ -3861,8 +3861,8 @@
       <c r="D38" t="s">
         <v>124</v>
       </c>
-      <c r="E38" t="e">
-        <v>#N/A</v>
+      <c r="E38" t="s">
+        <v>122</v>
       </c>
       <c r="F38" t="s">
         <v>184</v>
@@ -3914,8 +3914,8 @@
       <c r="D39" t="s">
         <v>124</v>
       </c>
-      <c r="E39" t="e">
-        <v>#N/A</v>
+      <c r="E39" t="s">
+        <v>122</v>
       </c>
       <c r="F39" t="s">
         <v>184</v>
@@ -3967,8 +3967,8 @@
       <c r="D40" t="s">
         <v>122</v>
       </c>
-      <c r="E40" t="e">
-        <v>#N/A</v>
+      <c r="E40" t="s">
+        <v>122</v>
       </c>
       <c r="F40" t="s">
         <v>176</v>
@@ -4020,8 +4020,8 @@
       <c r="D41" t="s">
         <v>122</v>
       </c>
-      <c r="E41" t="e">
-        <v>#N/A</v>
+      <c r="E41" t="s">
+        <v>122</v>
       </c>
       <c r="F41" t="s">
         <v>176</v>
@@ -4073,8 +4073,8 @@
       <c r="D42" t="s">
         <v>122</v>
       </c>
-      <c r="E42" t="e">
-        <v>#N/A</v>
+      <c r="E42" t="s">
+        <v>122</v>
       </c>
       <c r="F42" t="s">
         <v>176</v>
@@ -4126,8 +4126,8 @@
       <c r="D43" t="s">
         <v>122</v>
       </c>
-      <c r="E43" t="e">
-        <v>#N/A</v>
+      <c r="E43" t="s">
+        <v>122</v>
       </c>
       <c r="F43" t="s">
         <v>176</v>
@@ -4179,8 +4179,8 @@
       <c r="D44" t="s">
         <v>122</v>
       </c>
-      <c r="E44" t="e">
-        <v>#N/A</v>
+      <c r="E44" t="s">
+        <v>122</v>
       </c>
       <c r="F44" t="s">
         <v>176</v>
@@ -4285,8 +4285,8 @@
       <c r="D46" t="s">
         <v>127</v>
       </c>
-      <c r="E46" t="e">
-        <v>#N/A</v>
+      <c r="E46" t="s">
+        <v>122</v>
       </c>
       <c r="F46" t="s">
         <v>182</v>
@@ -4338,8 +4338,8 @@
       <c r="D47" t="s">
         <v>127</v>
       </c>
-      <c r="E47" t="e">
-        <v>#N/A</v>
+      <c r="E47" t="s">
+        <v>122</v>
       </c>
       <c r="F47" t="s">
         <v>182</v>
@@ -4391,8 +4391,8 @@
       <c r="D48" t="s">
         <v>127</v>
       </c>
-      <c r="E48" t="e">
-        <v>#N/A</v>
+      <c r="E48" t="s">
+        <v>122</v>
       </c>
       <c r="F48" t="s">
         <v>182</v>
@@ -4444,8 +4444,8 @@
       <c r="D49" t="s">
         <v>127</v>
       </c>
-      <c r="E49" t="e">
-        <v>#N/A</v>
+      <c r="E49" t="s">
+        <v>122</v>
       </c>
       <c r="F49" t="s">
         <v>182</v>
@@ -4497,8 +4497,8 @@
       <c r="D50" t="s">
         <v>127</v>
       </c>
-      <c r="E50" t="e">
-        <v>#N/A</v>
+      <c r="E50" t="s">
+        <v>122</v>
       </c>
       <c r="F50" t="s">
         <v>182</v>
@@ -4550,8 +4550,8 @@
       <c r="D51" t="s">
         <v>127</v>
       </c>
-      <c r="E51" t="e">
-        <v>#N/A</v>
+      <c r="E51" t="s">
+        <v>122</v>
       </c>
       <c r="F51" t="s">
         <v>182</v>
@@ -4709,8 +4709,8 @@
       <c r="D54" t="s">
         <v>124</v>
       </c>
-      <c r="E54" t="e">
-        <v>#N/A</v>
+      <c r="E54" t="s">
+        <v>122</v>
       </c>
       <c r="F54" t="s">
         <v>183</v>
@@ -4762,8 +4762,8 @@
       <c r="D55" t="s">
         <v>124</v>
       </c>
-      <c r="E55" t="e">
-        <v>#N/A</v>
+      <c r="E55" t="s">
+        <v>122</v>
       </c>
       <c r="F55" t="s">
         <v>183</v>
@@ -5928,8 +5928,8 @@
       <c r="D77" t="s">
         <v>127</v>
       </c>
-      <c r="E77" t="e">
-        <v>#N/A</v>
+      <c r="E77" t="s">
+        <v>122</v>
       </c>
       <c r="F77" t="s">
         <v>182</v>
@@ -5981,8 +5981,8 @@
       <c r="D78" t="s">
         <v>127</v>
       </c>
-      <c r="E78" t="e">
-        <v>#N/A</v>
+      <c r="E78" t="s">
+        <v>122</v>
       </c>
       <c r="F78" t="s">
         <v>182</v>
@@ -6034,8 +6034,8 @@
       <c r="D79" t="s">
         <v>124</v>
       </c>
-      <c r="E79" t="e">
-        <v>#N/A</v>
+      <c r="E79" t="s">
+        <v>122</v>
       </c>
       <c r="F79" t="s">
         <v>176</v>
@@ -6087,8 +6087,8 @@
       <c r="D80" t="s">
         <v>124</v>
       </c>
-      <c r="E80" t="e">
-        <v>#N/A</v>
+      <c r="E80" t="s">
+        <v>122</v>
       </c>
       <c r="F80" t="s">
         <v>184</v>
@@ -6140,8 +6140,8 @@
       <c r="D81" t="s">
         <v>127</v>
       </c>
-      <c r="E81" t="e">
-        <v>#N/A</v>
+      <c r="E81" t="s">
+        <v>122</v>
       </c>
       <c r="F81" t="s">
         <v>182</v>
@@ -6246,8 +6246,8 @@
       <c r="D83" t="s">
         <v>134</v>
       </c>
-      <c r="E83" t="e">
-        <v>#N/A</v>
+      <c r="E83" t="s">
+        <v>161</v>
       </c>
       <c r="F83" t="s">
         <v>192</v>
@@ -6299,8 +6299,8 @@
       <c r="D84" t="s">
         <v>134</v>
       </c>
-      <c r="E84" t="e">
-        <v>#N/A</v>
+      <c r="E84" t="s">
+        <v>161</v>
       </c>
       <c r="F84" t="s">
         <v>192</v>
@@ -6352,8 +6352,8 @@
       <c r="D85" t="s">
         <v>134</v>
       </c>
-      <c r="E85" t="e">
-        <v>#N/A</v>
+      <c r="E85" t="s">
+        <v>161</v>
       </c>
       <c r="F85" t="s">
         <v>192</v>
@@ -6405,8 +6405,8 @@
       <c r="D86" t="s">
         <v>134</v>
       </c>
-      <c r="E86" t="e">
-        <v>#N/A</v>
+      <c r="E86" t="s">
+        <v>161</v>
       </c>
       <c r="F86" t="s">
         <v>192</v>
@@ -6564,8 +6564,8 @@
       <c r="D89" t="s">
         <v>135</v>
       </c>
-      <c r="E89" t="e">
-        <v>#N/A</v>
+      <c r="E89" t="s">
+        <v>164</v>
       </c>
       <c r="F89" t="s">
         <v>193</v>
@@ -6723,8 +6723,8 @@
       <c r="D92" t="s">
         <v>136</v>
       </c>
-      <c r="E92" t="e">
-        <v>#N/A</v>
+      <c r="E92" t="s">
+        <v>161</v>
       </c>
       <c r="F92" t="s">
         <v>195</v>
@@ -7147,8 +7147,8 @@
       <c r="D100" t="s">
         <v>137</v>
       </c>
-      <c r="E100" t="e">
-        <v>#N/A</v>
+      <c r="E100" t="s">
+        <v>161</v>
       </c>
       <c r="F100" t="s">
         <v>195</v>
@@ -7889,8 +7889,8 @@
       <c r="D114" t="s">
         <v>123</v>
       </c>
-      <c r="E114" t="e">
-        <v>#N/A</v>
+      <c r="E114" t="s">
+        <v>133</v>
       </c>
       <c r="F114" t="s">
         <v>199</v>
@@ -8525,8 +8525,8 @@
       <c r="D126" t="s">
         <v>141</v>
       </c>
-      <c r="E126" t="e">
-        <v>#N/A</v>
+      <c r="E126" t="s">
+        <v>133</v>
       </c>
       <c r="F126" t="s">
         <v>202</v>
@@ -9373,8 +9373,8 @@
       <c r="D142" t="s">
         <v>143</v>
       </c>
-      <c r="E142" t="e">
-        <v>#N/A</v>
+      <c r="E142" t="s">
+        <v>161</v>
       </c>
       <c r="F142" t="s">
         <v>210</v>
@@ -9532,8 +9532,8 @@
       <c r="D145" t="s">
         <v>143</v>
       </c>
-      <c r="E145" t="e">
-        <v>#N/A</v>
+      <c r="E145" t="s">
+        <v>161</v>
       </c>
       <c r="F145" t="s">
         <v>210</v>
@@ -9585,8 +9585,8 @@
       <c r="D146" t="s">
         <v>143</v>
       </c>
-      <c r="E146" t="e">
-        <v>#N/A</v>
+      <c r="E146" t="s">
+        <v>161</v>
       </c>
       <c r="F146" t="s">
         <v>210</v>
@@ -9744,8 +9744,8 @@
       <c r="D149" t="s">
         <v>138</v>
       </c>
-      <c r="E149" t="e">
-        <v>#N/A</v>
+      <c r="E149" t="s">
+        <v>161</v>
       </c>
       <c r="F149" t="s">
         <v>214</v>
@@ -9850,8 +9850,8 @@
       <c r="D151" t="s">
         <v>145</v>
       </c>
-      <c r="E151" t="s">
-        <v>160</v>
+      <c r="E151" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F151" t="s">
         <v>215</v>
@@ -9903,8 +9903,8 @@
       <c r="D152" t="s">
         <v>145</v>
       </c>
-      <c r="E152" t="s">
-        <v>160</v>
+      <c r="E152" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F152" t="s">
         <v>215</v>
@@ -9956,8 +9956,8 @@
       <c r="D153" t="s">
         <v>145</v>
       </c>
-      <c r="E153" t="s">
-        <v>160</v>
+      <c r="E153" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F153" t="s">
         <v>215</v>
@@ -10221,8 +10221,8 @@
       <c r="D158" t="s">
         <v>138</v>
       </c>
-      <c r="E158" t="e">
-        <v>#N/A</v>
+      <c r="E158" t="s">
+        <v>161</v>
       </c>
       <c r="F158" t="s">
         <v>214</v>
@@ -10274,8 +10274,8 @@
       <c r="D159" t="s">
         <v>148</v>
       </c>
-      <c r="E159" t="e">
-        <v>#N/A</v>
+      <c r="E159" t="s">
+        <v>164</v>
       </c>
       <c r="F159" t="s">
         <v>193</v>
@@ -11281,8 +11281,8 @@
       <c r="D178" t="s">
         <v>136</v>
       </c>
-      <c r="E178" t="e">
-        <v>#N/A</v>
+      <c r="E178" t="s">
+        <v>161</v>
       </c>
       <c r="F178" t="s">
         <v>195</v>
@@ -11334,8 +11334,8 @@
       <c r="D179" t="s">
         <v>137</v>
       </c>
-      <c r="E179" t="e">
-        <v>#N/A</v>
+      <c r="E179" t="s">
+        <v>161</v>
       </c>
       <c r="F179" t="s">
         <v>195</v>
@@ -11387,8 +11387,8 @@
       <c r="D180" t="s">
         <v>137</v>
       </c>
-      <c r="E180" t="e">
-        <v>#N/A</v>
+      <c r="E180" t="s">
+        <v>161</v>
       </c>
       <c r="F180" t="s">
         <v>195</v>
@@ -11440,8 +11440,8 @@
       <c r="D181" t="s">
         <v>137</v>
       </c>
-      <c r="E181" t="e">
-        <v>#N/A</v>
+      <c r="E181" t="s">
+        <v>161</v>
       </c>
       <c r="F181" t="s">
         <v>195</v>
@@ -11493,8 +11493,8 @@
       <c r="D182" t="s">
         <v>136</v>
       </c>
-      <c r="E182" t="e">
-        <v>#N/A</v>
+      <c r="E182" t="s">
+        <v>161</v>
       </c>
       <c r="F182" t="s">
         <v>195</v>
@@ -12977,8 +12977,8 @@
       <c r="D210" t="s">
         <v>123</v>
       </c>
-      <c r="E210" t="e">
-        <v>#N/A</v>
+      <c r="E210" t="s">
+        <v>164</v>
       </c>
       <c r="F210" t="s">
         <v>222</v>
@@ -13984,8 +13984,8 @@
       <c r="D229" t="s">
         <v>143</v>
       </c>
-      <c r="E229" t="e">
-        <v>#N/A</v>
+      <c r="E229" t="s">
+        <v>161</v>
       </c>
       <c r="F229" t="s">
         <v>227</v>
@@ -14461,8 +14461,8 @@
       <c r="D238" t="s">
         <v>155</v>
       </c>
-      <c r="E238" t="e">
-        <v>#N/A</v>
+      <c r="E238" t="s">
+        <v>122</v>
       </c>
       <c r="F238" t="s">
         <v>229</v>
@@ -14885,8 +14885,8 @@
       <c r="D246" t="s">
         <v>124</v>
       </c>
-      <c r="E246" t="e">
-        <v>#N/A</v>
+      <c r="E246" t="s">
+        <v>122</v>
       </c>
       <c r="F246" t="s">
         <v>184</v>
@@ -14938,8 +14938,8 @@
       <c r="D247" t="s">
         <v>124</v>
       </c>
-      <c r="E247" t="e">
-        <v>#N/A</v>
+      <c r="E247" t="s">
+        <v>122</v>
       </c>
       <c r="F247" t="s">
         <v>184</v>
@@ -14991,8 +14991,8 @@
       <c r="D248" t="s">
         <v>124</v>
       </c>
-      <c r="E248" t="e">
-        <v>#N/A</v>
+      <c r="E248" t="s">
+        <v>122</v>
       </c>
       <c r="F248" t="s">
         <v>184</v>
@@ -15044,8 +15044,8 @@
       <c r="D249" t="s">
         <v>124</v>
       </c>
-      <c r="E249" t="e">
-        <v>#N/A</v>
+      <c r="E249" t="s">
+        <v>122</v>
       </c>
       <c r="F249" t="s">
         <v>184</v>
@@ -15203,8 +15203,8 @@
       <c r="D252" t="s">
         <v>123</v>
       </c>
-      <c r="E252" t="e">
-        <v>#N/A</v>
+      <c r="E252" t="s">
+        <v>133</v>
       </c>
       <c r="F252" t="s">
         <v>202</v>
@@ -15256,8 +15256,8 @@
       <c r="D253" t="s">
         <v>123</v>
       </c>
-      <c r="E253" t="e">
-        <v>#N/A</v>
+      <c r="E253" t="s">
+        <v>133</v>
       </c>
       <c r="F253" t="s">
         <v>202</v>
@@ -15680,8 +15680,8 @@
       <c r="D261" t="s">
         <v>156</v>
       </c>
-      <c r="E261" t="e">
-        <v>#N/A</v>
+      <c r="E261" t="s">
+        <v>163</v>
       </c>
       <c r="F261" t="s">
         <v>231</v>
@@ -15733,8 +15733,8 @@
       <c r="D262" t="s">
         <v>156</v>
       </c>
-      <c r="E262" t="e">
-        <v>#N/A</v>
+      <c r="E262" t="s">
+        <v>163</v>
       </c>
       <c r="F262" t="s">
         <v>231</v>
@@ -15786,8 +15786,8 @@
       <c r="D263" t="s">
         <v>156</v>
       </c>
-      <c r="E263" t="e">
-        <v>#N/A</v>
+      <c r="E263" t="s">
+        <v>163</v>
       </c>
       <c r="F263" t="s">
         <v>231</v>
@@ -15892,8 +15892,8 @@
       <c r="D265" t="s">
         <v>156</v>
       </c>
-      <c r="E265" t="e">
-        <v>#N/A</v>
+      <c r="E265" t="s">
+        <v>163</v>
       </c>
       <c r="F265" t="s">
         <v>231</v>
@@ -16899,8 +16899,8 @@
       <c r="D284" t="s">
         <v>122</v>
       </c>
-      <c r="E284" t="e">
-        <v>#N/A</v>
+      <c r="E284" t="s">
+        <v>122</v>
       </c>
       <c r="F284" t="s">
         <v>176</v>
@@ -16952,8 +16952,8 @@
       <c r="D285" t="s">
         <v>122</v>
       </c>
-      <c r="E285" t="e">
-        <v>#N/A</v>
+      <c r="E285" t="s">
+        <v>122</v>
       </c>
       <c r="F285" t="s">
         <v>176</v>
@@ -17005,8 +17005,8 @@
       <c r="D286" t="s">
         <v>122</v>
       </c>
-      <c r="E286" t="e">
-        <v>#N/A</v>
+      <c r="E286" t="s">
+        <v>122</v>
       </c>
       <c r="F286" t="s">
         <v>176</v>
@@ -17058,8 +17058,8 @@
       <c r="D287" t="s">
         <v>122</v>
       </c>
-      <c r="E287" t="e">
-        <v>#N/A</v>
+      <c r="E287" t="s">
+        <v>122</v>
       </c>
       <c r="F287" t="s">
         <v>176</v>
@@ -17111,8 +17111,8 @@
       <c r="D288" t="s">
         <v>122</v>
       </c>
-      <c r="E288" t="e">
-        <v>#N/A</v>
+      <c r="E288" t="s">
+        <v>122</v>
       </c>
       <c r="F288" t="s">
         <v>176</v>
@@ -17164,8 +17164,8 @@
       <c r="D289" t="s">
         <v>122</v>
       </c>
-      <c r="E289" t="e">
-        <v>#N/A</v>
+      <c r="E289" t="s">
+        <v>122</v>
       </c>
       <c r="F289" t="s">
         <v>176</v>
@@ -17217,8 +17217,8 @@
       <c r="D290" t="s">
         <v>122</v>
       </c>
-      <c r="E290" t="e">
-        <v>#N/A</v>
+      <c r="E290" t="s">
+        <v>122</v>
       </c>
       <c r="F290" t="s">
         <v>176</v>
